--- a/Planejamento/Documentos Adicionais/Previsoes do Orcamento.xlsx
+++ b/Planejamento/Documentos Adicionais/Previsoes do Orcamento.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel\OneDrive\Documentos\Engenharia de Software\Gerência de Projeto de Software\Projeto\Planejamento\Documentos Adicionais\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11060" yWindow="0" windowWidth="24440" windowHeight="15020" tabRatio="805" activeTab="3"/>
+    <workbookView xWindow="11055" yWindow="0" windowWidth="24435" windowHeight="15015" tabRatio="805" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucoes" sheetId="9" r:id="rId1"/>
@@ -13,7 +18,7 @@
     <sheet name="Status" sheetId="13" r:id="rId4"/>
     <sheet name="Param" sheetId="10" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +33,7 @@
     <author>Eduardo Montes, PMP</author>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0">
+    <comment ref="C8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0">
+    <comment ref="B9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -76,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0">
+    <comment ref="C11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0">
+    <comment ref="B12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="0">
+    <comment ref="C14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -148,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0">
+    <comment ref="B15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -172,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0">
+    <comment ref="C17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -196,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0">
+    <comment ref="B18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -220,7 +225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0">
+    <comment ref="C20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -244,7 +249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="0">
+    <comment ref="B21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -268,7 +273,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C23" authorId="0">
+    <comment ref="C23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -292,7 +297,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="0">
+    <comment ref="B24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -316,7 +321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C29" authorId="0">
+    <comment ref="C29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -340,7 +345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B30" authorId="0">
+    <comment ref="B30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -364,7 +369,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C35" authorId="0">
+    <comment ref="C35" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -388,7 +393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B36" authorId="0">
+    <comment ref="B36" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -412,7 +417,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C41" authorId="0">
+    <comment ref="C41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -436,7 +441,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B42" authorId="0">
+    <comment ref="B42" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -470,7 +475,7 @@
     <author>Eduardo Montes, PMP</author>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0">
+    <comment ref="C8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -494,7 +499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0">
+    <comment ref="B9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -518,7 +523,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0">
+    <comment ref="C11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -542,7 +547,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0">
+    <comment ref="B12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -566,7 +571,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="0">
+    <comment ref="C14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -590,7 +595,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0">
+    <comment ref="B15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -614,7 +619,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0">
+    <comment ref="C17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -638,7 +643,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0">
+    <comment ref="B18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -662,7 +667,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0">
+    <comment ref="C20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -686,7 +691,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="0">
+    <comment ref="B21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -710,7 +715,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C23" authorId="0">
+    <comment ref="C23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -734,7 +739,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="0">
+    <comment ref="B24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -758,7 +763,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C29" authorId="0">
+    <comment ref="C29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -782,7 +787,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B30" authorId="0">
+    <comment ref="B30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -806,7 +811,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C35" authorId="0">
+    <comment ref="C35" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -830,7 +835,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B36" authorId="0">
+    <comment ref="B36" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -854,7 +859,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C41" authorId="0">
+    <comment ref="C41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -878,7 +883,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B42" authorId="0">
+    <comment ref="B42" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1981,75 +1986,75 @@
     </xf>
   </cellXfs>
   <cellStyles count="69">
-    <cellStyle name="Accent1" xfId="1" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent1 - 20%" xfId="2"/>
     <cellStyle name="Accent1 - 40%" xfId="3"/>
     <cellStyle name="Accent1 - 60%" xfId="4"/>
-    <cellStyle name="Accent2" xfId="5" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent2 - 20%" xfId="6"/>
     <cellStyle name="Accent2 - 40%" xfId="7"/>
     <cellStyle name="Accent2 - 60%" xfId="8"/>
-    <cellStyle name="Accent3" xfId="9" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent3 - 20%" xfId="10"/>
     <cellStyle name="Accent3 - 40%" xfId="11"/>
     <cellStyle name="Accent3 - 60%" xfId="12"/>
-    <cellStyle name="Accent4" xfId="13" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent4 - 20%" xfId="14"/>
     <cellStyle name="Accent4 - 40%" xfId="15"/>
     <cellStyle name="Accent4 - 60%" xfId="16"/>
-    <cellStyle name="Accent5" xfId="17" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent5 - 20%" xfId="18"/>
     <cellStyle name="Accent5 - 40%" xfId="19"/>
     <cellStyle name="Accent5 - 60%" xfId="20"/>
-    <cellStyle name="Accent6" xfId="21" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Accent6 - 20%" xfId="22"/>
     <cellStyle name="Accent6 - 40%" xfId="23"/>
     <cellStyle name="Accent6 - 60%" xfId="24"/>
-    <cellStyle name="Bad" xfId="25" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="27" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Bom" xfId="31" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="26" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Célula de Verificação" xfId="27" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Célula Vinculada" xfId="37" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Emphasis 1" xfId="28"/>
     <cellStyle name="Emphasis 2" xfId="29"/>
     <cellStyle name="Emphasis 3" xfId="30"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Good" xfId="31" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="32" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="33" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="35" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Input" xfId="36" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="37" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="38" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Ênfase1" xfId="1" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Ênfase2" xfId="5" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Ênfase3" xfId="9" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Ênfase4" xfId="13" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Ênfase5" xfId="17" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Ênfase6" xfId="21" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="36" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hiperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Incorreto" xfId="25" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutra" xfId="38" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="44"/>
-    <cellStyle name="Note" xfId="39" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="40" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Percent" xfId="46" builtinId="5"/>
+    <cellStyle name="Nota" xfId="39" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Percent 2" xfId="45"/>
+    <cellStyle name="Porcentagem" xfId="46" builtinId="5"/>
+    <cellStyle name="Saída" xfId="40" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Sheet Title" xfId="41"/>
+    <cellStyle name="Texto de Aviso" xfId="43" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="32" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="33" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="34" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Título 4" xfId="35" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2067,7 +2072,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2086,7 +2091,7 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Status!$E$3</c:f>
@@ -2108,16 +2113,16 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25760.0</c:v>
+                  <c:v>25760</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38100.0</c:v>
+                  <c:v>38100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50440.0</c:v>
+                  <c:v>50440</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2126,7 +2131,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Status!$F$3</c:f>
@@ -2148,16 +2153,16 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2172,10 +2177,9 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2123315080"/>
-        <c:axId val="-2129888104"/>
+        <c:axId val="1231840752"/>
+        <c:axId val="1231842928"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -2213,7 +2217,7 @@
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="10"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
                         <c:v>0</c:v>
                       </c:pt>
@@ -2226,24 +2230,6 @@
                       <c:pt idx="3">
                         <c:v>3</c:v>
                       </c:pt>
-                      <c:pt idx="4">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>9</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -2254,7 +2240,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2123315080"/>
+        <c:axId val="1231840752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2264,7 +2250,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2129888104"/>
+        <c:crossAx val="1231842928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2272,7 +2258,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2129888104"/>
+        <c:axId val="1231842928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2283,7 +2269,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123315080"/>
+        <c:crossAx val="1231840752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2633,28 +2619,28 @@
       <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="14" customWidth="1"/>
     <col min="2" max="2" width="5" style="14" customWidth="1"/>
-    <col min="3" max="3" width="82.33203125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="27.5" style="14" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="14"/>
+    <col min="3" max="3" width="82.28515625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="14" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="12">
         <f ca="1">TODAY()</f>
-        <v>42880</v>
+        <v>42881</v>
       </c>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="2:6" s="15" customFormat="1">
+    <row r="3" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2671,7 +2657,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="16">
         <v>0</v>
       </c>
@@ -2686,7 +2672,7 @@
       </c>
       <c r="F4" s="16"/>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="16">
         <v>1</v>
       </c>
@@ -2701,7 +2687,7 @@
       </c>
       <c r="F5" s="16"/>
     </row>
-    <row r="6" spans="2:6" ht="42">
+    <row r="6" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="16">
         <f>B5+1</f>
         <v>2</v>
@@ -2717,7 +2703,7 @@
       </c>
       <c r="F6" s="16"/>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="16">
         <f t="shared" ref="B7:B16" si="0">B6+1</f>
         <v>3</v>
@@ -2733,7 +2719,7 @@
       </c>
       <c r="F7" s="16"/>
     </row>
-    <row r="8" spans="2:6" ht="28">
+    <row r="8" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2749,7 +2735,7 @@
       </c>
       <c r="F8" s="16"/>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2765,7 +2751,7 @@
       </c>
       <c r="F9" s="16"/>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2781,7 +2767,7 @@
       </c>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2797,7 +2783,7 @@
       </c>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="2:6" ht="28">
+    <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2813,7 +2799,7 @@
       </c>
       <c r="F12" s="16"/>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2823,7 +2809,7 @@
       <c r="E13" s="18"/>
       <c r="F13" s="16"/>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2833,7 +2819,7 @@
       <c r="E14" s="18"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2843,7 +2829,7 @@
       <c r="E15" s="18"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2853,26 +2839,26 @@
       <c r="E16" s="18"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="19" spans="3:5">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="19"/>
       <c r="E19" s="20"/>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="19"/>
       <c r="E20" s="20"/>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="19"/>
       <c r="E21" s="20"/>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="19"/>
       <c r="E22" s="20"/>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="19"/>
     </row>
-    <row r="24" spans="3:5">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" s="19"/>
     </row>
   </sheetData>
@@ -2898,25 +2884,25 @@
   <dimension ref="B2:K64"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C6" sqref="C6"/>
       <selection pane="topRight" activeCell="C6" sqref="C6"/>
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
       <selection pane="bottomRight" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="28.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="21" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="21" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="21"/>
+    <col min="1" max="1" width="2.7109375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="21" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="58" t="s">
         <v>4</v>
       </c>
@@ -2928,7 +2914,7 @@
       <c r="F2" s="58"/>
       <c r="G2" s="58"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
@@ -2950,7 +2936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
@@ -2958,19 +2944,19 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="31"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C6" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="28"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>53</v>
       </c>
@@ -2981,7 +2967,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="30" t="s">
         <v>56</v>
       </c>
@@ -2997,7 +2983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="21" t="s">
         <v>6</v>
       </c>
@@ -3009,7 +2995,7 @@
       <c r="F9" s="42"/>
       <c r="G9" s="43"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
         <v>8</v>
       </c>
@@ -3031,7 +3017,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="30" t="s">
         <v>56</v>
       </c>
@@ -3043,7 +3029,7 @@
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="21" t="s">
         <v>6</v>
       </c>
@@ -3060,7 +3046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
         <v>8</v>
       </c>
@@ -3078,7 +3064,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="30" t="s">
         <v>56</v>
       </c>
@@ -3090,7 +3076,7 @@
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="21" t="s">
         <v>6</v>
       </c>
@@ -3107,7 +3093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="21" t="s">
         <v>8</v>
       </c>
@@ -3126,7 +3112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="30" t="s">
         <v>56</v>
       </c>
@@ -3138,7 +3124,7 @@
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="21" t="s">
         <v>6</v>
       </c>
@@ -3155,7 +3141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="21" t="s">
         <v>8</v>
       </c>
@@ -3173,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="30" t="s">
         <v>56</v>
       </c>
@@ -3185,7 +3171,7 @@
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="21" t="s">
         <v>6</v>
       </c>
@@ -3201,7 +3187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="21" t="s">
         <v>8</v>
       </c>
@@ -3219,7 +3205,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="30" t="s">
         <v>56</v>
       </c>
@@ -3231,7 +3217,7 @@
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="21" t="s">
         <v>6</v>
       </c>
@@ -3248,7 +3234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="21" t="s">
         <v>8</v>
       </c>
@@ -3268,7 +3254,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="45" t="s">
         <v>56</v>
       </c>
@@ -3280,7 +3266,7 @@
       <c r="F26" s="48"/>
       <c r="G26" s="48"/>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="47" t="s">
         <v>6</v>
       </c>
@@ -3296,7 +3282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="47" t="s">
         <v>8</v>
       </c>
@@ -3314,7 +3300,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="30" t="s">
         <v>56</v>
       </c>
@@ -3326,7 +3312,7 @@
       <c r="F29" s="40"/>
       <c r="G29" s="40"/>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="21" t="s">
         <v>6</v>
       </c>
@@ -3343,7 +3329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="21" t="s">
         <v>8</v>
       </c>
@@ -3362,7 +3348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="45" t="s">
         <v>56</v>
       </c>
@@ -3374,7 +3360,7 @@
       <c r="F32" s="48"/>
       <c r="G32" s="48"/>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="47" t="s">
         <v>6</v>
       </c>
@@ -3390,7 +3376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="47" t="s">
         <v>8</v>
       </c>
@@ -3408,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="30" t="s">
         <v>56</v>
       </c>
@@ -3420,7 +3406,7 @@
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="21" t="s">
         <v>6</v>
       </c>
@@ -3437,7 +3423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="21" t="s">
         <v>8</v>
       </c>
@@ -3456,7 +3442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="45" t="s">
         <v>56</v>
       </c>
@@ -3468,7 +3454,7 @@
       <c r="F38" s="48"/>
       <c r="G38" s="48"/>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="47" t="s">
         <v>6</v>
       </c>
@@ -3484,7 +3470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="47" t="s">
         <v>8</v>
       </c>
@@ -3502,7 +3488,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="30" t="s">
         <v>56</v>
       </c>
@@ -3514,7 +3500,7 @@
       <c r="F41" s="40"/>
       <c r="G41" s="40"/>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="21" t="s">
         <v>6</v>
       </c>
@@ -3531,7 +3517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="21" t="s">
         <v>8</v>
       </c>
@@ -3549,7 +3535,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="45" spans="2:7">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="28" t="s">
         <v>57</v>
       </c>
@@ -3570,12 +3556,12 @@
         <v>12340</v>
       </c>
     </row>
-    <row r="47" spans="2:7">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="2:7">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="21" t="s">
         <v>28</v>
       </c>
@@ -3592,12 +3578,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:7">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="2:7">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="21" t="s">
         <v>30</v>
       </c>
@@ -3605,24 +3591,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:7">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="30" t="s">
         <v>32</v>
       </c>
       <c r="C51" s="31"/>
     </row>
-    <row r="52" spans="2:7">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="30" t="s">
         <v>32</v>
       </c>
       <c r="C52" s="31"/>
     </row>
-    <row r="53" spans="2:7">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="2:7">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="28" t="s">
         <v>33</v>
       </c>
@@ -3643,7 +3629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:7">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="28" t="s">
         <v>33</v>
       </c>
@@ -3664,7 +3650,7 @@
         <v>12340</v>
       </c>
     </row>
-    <row r="58" spans="2:7">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="28" t="s">
         <v>52</v>
       </c>
@@ -3685,22 +3671,22 @@
         <v>50440</v>
       </c>
     </row>
-    <row r="59" spans="2:7">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E59" s="35"/>
       <c r="F59" s="35"/>
       <c r="G59" s="35"/>
     </row>
-    <row r="60" spans="2:7">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="2:7">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="38"/>
     </row>
-    <row r="62" spans="2:7">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="37" t="s">
         <v>0</v>
       </c>
@@ -3710,7 +3696,7 @@
         <v>45645.344814847143</v>
       </c>
     </row>
-    <row r="63" spans="2:7">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="37" t="s">
         <v>1</v>
       </c>
@@ -3719,7 +3705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:7">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="37" t="s">
         <v>2</v>
       </c>
@@ -3750,25 +3736,25 @@
   <dimension ref="B2:G64"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C6" sqref="C6"/>
       <selection pane="topRight" activeCell="C6" sqref="C6"/>
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
       <selection pane="bottomRight" activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="45.83203125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="21" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="21" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="21"/>
+    <col min="1" max="1" width="2.7109375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="45.85546875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="21" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="58" t="str">
         <f>Orcado!B2</f>
         <v>Identificação do Projeto</v>
@@ -3781,7 +3767,7 @@
       <c r="F2" s="58"/>
       <c r="G2" s="58"/>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
@@ -3804,7 +3790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
@@ -3813,7 +3799,7 @@
         <v>Gilmar</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="15" customHeight="1">
+    <row r="5" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
@@ -3822,13 +3808,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C6" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="28"/>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>46</v>
       </c>
@@ -3836,7 +3822,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="30" t="s">
         <v>56</v>
       </c>
@@ -3848,14 +3834,14 @@
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
     </row>
-    <row r="9" spans="2:7" s="53" customFormat="1">
+    <row r="9" spans="2:7" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C9" s="54"/>
       <c r="D9" s="55"/>
       <c r="E9" s="55"/>
       <c r="F9" s="55"/>
       <c r="G9" s="55"/>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
         <v>8</v>
       </c>
@@ -3867,7 +3853,7 @@
       <c r="F10" s="44"/>
       <c r="G10" s="44"/>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="30" t="s">
         <v>56</v>
       </c>
@@ -3879,14 +3865,14 @@
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
     </row>
-    <row r="12" spans="2:7" s="53" customFormat="1">
+    <row r="12" spans="2:7" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C12" s="54"/>
       <c r="D12" s="55"/>
       <c r="E12" s="55"/>
       <c r="F12" s="55"/>
       <c r="G12" s="55"/>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
         <v>8</v>
       </c>
@@ -3898,7 +3884,7 @@
       <c r="F13" s="44"/>
       <c r="G13" s="44"/>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="30" t="s">
         <v>56</v>
       </c>
@@ -3910,14 +3896,14 @@
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
     </row>
-    <row r="15" spans="2:7" s="53" customFormat="1">
+    <row r="15" spans="2:7" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C15" s="54"/>
       <c r="D15" s="55"/>
       <c r="E15" s="55"/>
       <c r="F15" s="55"/>
       <c r="G15" s="55"/>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="21" t="s">
         <v>8</v>
       </c>
@@ -3929,7 +3915,7 @@
       <c r="F16" s="44"/>
       <c r="G16" s="44"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="30" t="s">
         <v>56</v>
       </c>
@@ -3941,14 +3927,14 @@
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
     </row>
-    <row r="18" spans="2:7" s="53" customFormat="1">
+    <row r="18" spans="2:7" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="54"/>
       <c r="D18" s="55"/>
       <c r="E18" s="55"/>
       <c r="F18" s="55"/>
       <c r="G18" s="55"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="21" t="s">
         <v>8</v>
       </c>
@@ -3960,7 +3946,7 @@
       <c r="F19" s="44"/>
       <c r="G19" s="44"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="30" t="s">
         <v>56</v>
       </c>
@@ -3972,14 +3958,14 @@
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
     </row>
-    <row r="21" spans="2:7" s="53" customFormat="1">
+    <row r="21" spans="2:7" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="54"/>
       <c r="D21" s="55"/>
       <c r="E21" s="55"/>
       <c r="F21" s="55"/>
       <c r="G21" s="55"/>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="21" t="s">
         <v>8</v>
       </c>
@@ -3991,7 +3977,7 @@
       <c r="F22" s="44"/>
       <c r="G22" s="44"/>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="30" t="s">
         <v>56</v>
       </c>
@@ -4003,14 +3989,14 @@
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
     </row>
-    <row r="24" spans="2:7" s="53" customFormat="1">
+    <row r="24" spans="2:7" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="54"/>
       <c r="D24" s="55"/>
       <c r="E24" s="55"/>
       <c r="F24" s="55"/>
       <c r="G24" s="55"/>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="21" t="s">
         <v>8</v>
       </c>
@@ -4022,7 +4008,7 @@
       <c r="F25" s="44"/>
       <c r="G25" s="44"/>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="45" t="s">
         <v>56</v>
       </c>
@@ -4034,7 +4020,7 @@
       <c r="F26" s="48"/>
       <c r="G26" s="48"/>
     </row>
-    <row r="27" spans="2:7" s="53" customFormat="1">
+    <row r="27" spans="2:7" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="56"/>
       <c r="C27" s="56"/>
       <c r="D27" s="57"/>
@@ -4042,7 +4028,7 @@
       <c r="F27" s="57"/>
       <c r="G27" s="57"/>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="47" t="s">
         <v>8</v>
       </c>
@@ -4054,7 +4040,7 @@
       <c r="F28" s="52"/>
       <c r="G28" s="52"/>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="30" t="s">
         <v>56</v>
       </c>
@@ -4066,14 +4052,14 @@
       <c r="F29" s="40"/>
       <c r="G29" s="40"/>
     </row>
-    <row r="30" spans="2:7" s="53" customFormat="1">
+    <row r="30" spans="2:7" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="54"/>
       <c r="D30" s="55"/>
       <c r="E30" s="55"/>
       <c r="F30" s="55"/>
       <c r="G30" s="55"/>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="21" t="s">
         <v>8</v>
       </c>
@@ -4085,7 +4071,7 @@
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="45" t="s">
         <v>56</v>
       </c>
@@ -4097,7 +4083,7 @@
       <c r="F32" s="48"/>
       <c r="G32" s="48"/>
     </row>
-    <row r="33" spans="2:7" s="53" customFormat="1">
+    <row r="33" spans="2:7" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="56"/>
       <c r="C33" s="56"/>
       <c r="D33" s="57"/>
@@ -4105,7 +4091,7 @@
       <c r="F33" s="57"/>
       <c r="G33" s="57"/>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="47" t="s">
         <v>8</v>
       </c>
@@ -4117,7 +4103,7 @@
       <c r="F34" s="52"/>
       <c r="G34" s="52"/>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="30" t="s">
         <v>56</v>
       </c>
@@ -4129,14 +4115,14 @@
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
     </row>
-    <row r="36" spans="2:7" s="53" customFormat="1">
+    <row r="36" spans="2:7" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="54"/>
       <c r="D36" s="55"/>
       <c r="E36" s="55"/>
       <c r="F36" s="55"/>
       <c r="G36" s="55"/>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="21" t="s">
         <v>8</v>
       </c>
@@ -4148,7 +4134,7 @@
       <c r="F37" s="44"/>
       <c r="G37" s="44"/>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="45" t="s">
         <v>56</v>
       </c>
@@ -4160,7 +4146,7 @@
       <c r="F38" s="48"/>
       <c r="G38" s="48"/>
     </row>
-    <row r="39" spans="2:7" s="53" customFormat="1">
+    <row r="39" spans="2:7" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="56"/>
       <c r="C39" s="56"/>
       <c r="D39" s="57"/>
@@ -4168,7 +4154,7 @@
       <c r="F39" s="57"/>
       <c r="G39" s="57"/>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="47" t="s">
         <v>8</v>
       </c>
@@ -4180,7 +4166,7 @@
       <c r="F40" s="52"/>
       <c r="G40" s="52"/>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="30" t="s">
         <v>56</v>
       </c>
@@ -4192,14 +4178,14 @@
       <c r="F41" s="40"/>
       <c r="G41" s="40"/>
     </row>
-    <row r="42" spans="2:7" s="53" customFormat="1">
+    <row r="42" spans="2:7" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="54"/>
       <c r="D42" s="55"/>
       <c r="E42" s="55"/>
       <c r="F42" s="55"/>
       <c r="G42" s="55"/>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="21" t="s">
         <v>8</v>
       </c>
@@ -4211,7 +4197,7 @@
       <c r="F43" s="44"/>
       <c r="G43" s="44"/>
     </row>
-    <row r="45" spans="2:7">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="28" t="s">
         <v>57</v>
       </c>
@@ -4232,12 +4218,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:7">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="2:7">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="21" t="s">
         <v>28</v>
       </c>
@@ -4256,7 +4242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:7">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="21" t="s">
         <v>29</v>
       </c>
@@ -4265,7 +4251,7 @@
       <c r="F49" s="31"/>
       <c r="G49" s="31"/>
     </row>
-    <row r="50" spans="2:7">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="21" t="s">
         <v>30</v>
       </c>
@@ -4276,7 +4262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:7">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="30" t="s">
         <v>32</v>
       </c>
@@ -4286,7 +4272,7 @@
       <c r="F51" s="31"/>
       <c r="G51" s="31"/>
     </row>
-    <row r="52" spans="2:7">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="30" t="s">
         <v>32</v>
       </c>
@@ -4296,7 +4282,7 @@
       <c r="F52" s="31"/>
       <c r="G52" s="31"/>
     </row>
-    <row r="53" spans="2:7">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="21" t="s">
         <v>31</v>
       </c>
@@ -4305,7 +4291,7 @@
       <c r="F53" s="31"/>
       <c r="G53" s="31"/>
     </row>
-    <row r="55" spans="2:7">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="28" t="s">
         <v>33</v>
       </c>
@@ -4326,7 +4312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:7">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="28" t="s">
         <v>33</v>
       </c>
@@ -4347,7 +4333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:7">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="28" t="s">
         <v>52</v>
       </c>
@@ -4368,22 +4354,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:7">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E59" s="35"/>
       <c r="F59" s="35"/>
       <c r="G59" s="35"/>
     </row>
-    <row r="60" spans="2:7">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="2:7">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="38"/>
     </row>
-    <row r="62" spans="2:7">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="37" t="s">
         <v>0</v>
       </c>
@@ -4393,7 +4379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:7">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="37" t="s">
         <v>1</v>
       </c>
@@ -4402,7 +4388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="2:7">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="37" t="s">
         <v>2</v>
       </c>
@@ -4436,17 +4422,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="21"/>
+    <col min="1" max="1" width="2.7109375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="21"/>
     <col min="3" max="3" width="10" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.83203125" style="21"/>
-    <col min="7" max="7" width="10.1640625" style="21" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="21"/>
+    <col min="4" max="6" width="8.85546875" style="21"/>
+    <col min="7" max="7" width="10.140625" style="21" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>44</v>
       </c>
@@ -4465,7 +4451,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>43</v>
       </c>
@@ -4484,7 +4470,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="22">
         <v>0</v>
       </c>
@@ -4513,7 +4499,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="22">
         <f>B4+1</f>
         <v>1</v>
@@ -4543,7 +4529,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="22">
         <f t="shared" ref="B6:B7" si="2">B5+1</f>
         <v>2</v>
@@ -4573,7 +4559,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="22">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -4603,7 +4589,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>47</v>
       </c>
@@ -4639,16 +4625,16 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="21" customWidth="1"/>
-    <col min="3" max="3" width="35.5" style="21" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="21"/>
+    <col min="1" max="1" width="2.7109375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>37</v>
       </c>
@@ -4659,7 +4645,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
         <v>7</v>
       </c>
@@ -4668,7 +4654,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
         <v>38</v>
       </c>
@@ -4679,49 +4665,49 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="22"/>
       <c r="C5" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="22"/>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="22"/>
       <c r="C6" s="22" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="22"/>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="22"/>
       <c r="C7" s="22" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="22"/>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="22"/>
       <c r="C8" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="22"/>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="22"/>
       <c r="C9" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="22"/>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="22"/>
       <c r="C10" s="22" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="22"/>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="22"/>
       <c r="C11" s="22" t="s">
         <v>25</v>

--- a/Planejamento/Documentos Adicionais/Previsoes do Orcamento.xlsx
+++ b/Planejamento/Documentos Adicionais/Previsoes do Orcamento.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel\OneDrive\Documentos\Engenharia de Software\Gerência de Projeto de Software\Projeto\Planejamento\Documentos Adicionais\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11055" yWindow="0" windowWidth="24435" windowHeight="15015" tabRatio="805" activeTab="3"/>
+    <workbookView xWindow="11240" yWindow="0" windowWidth="24440" windowHeight="15020" tabRatio="805" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucoes" sheetId="9" r:id="rId1"/>
@@ -18,7 +13,7 @@
     <sheet name="Status" sheetId="13" r:id="rId4"/>
     <sheet name="Param" sheetId="10" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -33,7 +28,7 @@
     <author>Eduardo Montes, PMP</author>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0" shapeId="0">
+    <comment ref="C8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0" shapeId="0">
+    <comment ref="B9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0">
+    <comment ref="C11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0">
+    <comment ref="B12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="0" shapeId="0">
+    <comment ref="C14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -153,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -177,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0" shapeId="0">
+    <comment ref="C17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -201,7 +196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0" shapeId="0">
+    <comment ref="B18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -225,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0" shapeId="0">
+    <comment ref="C20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -249,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="0" shapeId="0">
+    <comment ref="B21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -273,7 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C23" authorId="0" shapeId="0">
+    <comment ref="C23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -297,7 +292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="0" shapeId="0">
+    <comment ref="B24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -321,7 +316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C29" authorId="0" shapeId="0">
+    <comment ref="C29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -345,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B30" authorId="0" shapeId="0">
+    <comment ref="B30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -369,7 +364,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C35" authorId="0" shapeId="0">
+    <comment ref="C35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -393,7 +388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B36" authorId="0" shapeId="0">
+    <comment ref="B36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -417,7 +412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C41" authorId="0" shapeId="0">
+    <comment ref="C41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -441,7 +436,103 @@
         </r>
       </text>
     </comment>
-    <comment ref="B42" authorId="0" shapeId="0">
+    <comment ref="B42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eduardo Montes, PMP:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Caso exista um crescimento no benefício. Para facilitar a entrada o crescimento está como default, o mesmo para todos os anos, mas, pode ser alterado incluindo manualmente.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C44" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eduardo Montes, PMP:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Explique o ganho financeiro e forma de cálculo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B45" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eduardo Montes, PMP:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Caso exista um crescimento no benefício. Para facilitar a entrada o crescimento está como default, o mesmo para todos os anos, mas, pode ser alterado incluindo manualmente.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C47" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eduardo Montes, PMP:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Explique o ganho financeiro e forma de cálculo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -475,7 +566,7 @@
     <author>Eduardo Montes, PMP</author>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0" shapeId="0">
+    <comment ref="C8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -499,7 +590,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0" shapeId="0">
+    <comment ref="B9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -523,7 +614,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0">
+    <comment ref="C11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -547,7 +638,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0">
+    <comment ref="B12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -571,7 +662,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="0" shapeId="0">
+    <comment ref="C14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -595,7 +686,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -619,7 +710,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0" shapeId="0">
+    <comment ref="C17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -643,7 +734,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0" shapeId="0">
+    <comment ref="B18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -667,7 +758,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0" shapeId="0">
+    <comment ref="C20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -691,7 +782,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="0" shapeId="0">
+    <comment ref="B21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -715,7 +806,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C23" authorId="0" shapeId="0">
+    <comment ref="C23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -739,7 +830,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="0" shapeId="0">
+    <comment ref="B24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -763,7 +854,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C29" authorId="0" shapeId="0">
+    <comment ref="C29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -787,7 +878,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B30" authorId="0" shapeId="0">
+    <comment ref="B30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -811,7 +902,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C35" authorId="0" shapeId="0">
+    <comment ref="C35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -835,7 +926,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B36" authorId="0" shapeId="0">
+    <comment ref="B36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -859,7 +950,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C41" authorId="0" shapeId="0">
+    <comment ref="C41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -883,7 +974,103 @@
         </r>
       </text>
     </comment>
-    <comment ref="B42" authorId="0" shapeId="0">
+    <comment ref="B42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eduardo Montes, PMP:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Caso exista um crescimento no benefício. Para facilitar a entrada o crescimento está como default, o mesmo para todos os anos, mas, pode ser alterado incluindo manualmente.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C44" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eduardo Montes, PMP:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Explique o ganho financeiro e forma de cálculo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B45" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eduardo Montes, PMP:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Caso exista um crescimento no benefício. Para facilitar a entrada o crescimento está como default, o mesmo para todos os anos, mas, pode ser alterado incluindo manualmente.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C47" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eduardo Montes, PMP:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Explique o ganho financeiro e forma de cálculo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -912,7 +1099,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="83">
   <si>
     <t>NPV/VPL</t>
   </si>
@@ -1147,13 +1334,22 @@
     <t>Mouses</t>
   </si>
   <si>
-    <t>Salários dos Consultores</t>
-  </si>
-  <si>
     <t>Salário do Gerente de Projeto</t>
   </si>
   <si>
     <t>Gilmar</t>
+  </si>
+  <si>
+    <t>Salários dos Desenvolvedores</t>
+  </si>
+  <si>
+    <t>Salário do Gerente de Requisitos</t>
+  </si>
+  <si>
+    <t>Salário do Gerente de Qualidade</t>
+  </si>
+  <si>
+    <t>Investimento</t>
   </si>
 </sst>
 </file>
@@ -1614,7 +1810,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1814,8 +2010,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="69">
+  <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1885,8 +2117,20 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1936,10 +2180,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1971,10 +2211,6 @@
     <xf numFmtId="3" fontId="27" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="27" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="23" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="27" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1984,77 +2220,149 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="23" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="23" fillId="42" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="23" fillId="37" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="23" fillId="39" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="23" fillId="39" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="42" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="27" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="27" fillId="43" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="27" fillId="40" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="27" fillId="41" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="27" fillId="41" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="69">
+  <cellStyles count="81">
+    <cellStyle name="Accent1" xfId="1" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent1 - 20%" xfId="2"/>
     <cellStyle name="Accent1 - 40%" xfId="3"/>
     <cellStyle name="Accent1 - 60%" xfId="4"/>
+    <cellStyle name="Accent2" xfId="5" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent2 - 20%" xfId="6"/>
     <cellStyle name="Accent2 - 40%" xfId="7"/>
     <cellStyle name="Accent2 - 60%" xfId="8"/>
+    <cellStyle name="Accent3" xfId="9" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent3 - 20%" xfId="10"/>
     <cellStyle name="Accent3 - 40%" xfId="11"/>
     <cellStyle name="Accent3 - 60%" xfId="12"/>
+    <cellStyle name="Accent4" xfId="13" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent4 - 20%" xfId="14"/>
     <cellStyle name="Accent4 - 40%" xfId="15"/>
     <cellStyle name="Accent4 - 60%" xfId="16"/>
+    <cellStyle name="Accent5" xfId="17" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent5 - 20%" xfId="18"/>
     <cellStyle name="Accent5 - 40%" xfId="19"/>
     <cellStyle name="Accent5 - 60%" xfId="20"/>
+    <cellStyle name="Accent6" xfId="21" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Accent6 - 20%" xfId="22"/>
     <cellStyle name="Accent6 - 40%" xfId="23"/>
     <cellStyle name="Accent6 - 60%" xfId="24"/>
-    <cellStyle name="Bom" xfId="31" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="26" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Célula de Verificação" xfId="27" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Célula Vinculada" xfId="37" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="25" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="27" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Emphasis 1" xfId="28"/>
     <cellStyle name="Emphasis 2" xfId="29"/>
     <cellStyle name="Emphasis 3" xfId="30"/>
-    <cellStyle name="Ênfase1" xfId="1" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Ênfase2" xfId="5" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Ênfase3" xfId="9" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Ênfase4" xfId="13" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Ênfase5" xfId="17" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Ênfase6" xfId="21" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="36" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Hiperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Incorreto" xfId="25" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutra" xfId="38" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Good" xfId="31" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="32" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="33" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="35" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Input" xfId="36" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="37" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="38" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="44"/>
-    <cellStyle name="Nota" xfId="39" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="39" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="40" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="46" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="45"/>
-    <cellStyle name="Porcentagem" xfId="46" builtinId="5"/>
-    <cellStyle name="Saída" xfId="40" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Sheet Title" xfId="41"/>
-    <cellStyle name="Texto de Aviso" xfId="43" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="32" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="33" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="34" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Título 4" xfId="35" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2072,7 +2380,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2091,7 +2399,7 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="1"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>Status!$E$3</c:f>
@@ -2113,16 +2421,16 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25760</c:v>
+                  <c:v>39320.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38100</c:v>
+                  <c:v>59260.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50440</c:v>
+                  <c:v>79200.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2131,7 +2439,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Status!$F$3</c:f>
@@ -2153,16 +2461,16 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2177,9 +2485,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1231840752"/>
-        <c:axId val="1231842928"/>
+        <c:axId val="-2119307224"/>
+        <c:axId val="-2119304184"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -2240,7 +2549,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1231840752"/>
+        <c:axId val="-2119307224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2250,7 +2559,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1231842928"/>
+        <c:crossAx val="-2119304184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2258,7 +2567,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1231842928"/>
+        <c:axId val="-2119304184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2269,7 +2578,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1231840752"/>
+        <c:crossAx val="-2119307224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2619,28 +2928,28 @@
       <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="14" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="14" customWidth="1"/>
     <col min="2" max="2" width="5" style="14" customWidth="1"/>
-    <col min="3" max="3" width="82.28515625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="14" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" style="14" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="14"/>
+    <col min="3" max="3" width="82.33203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="27.5" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6">
       <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="12">
         <f ca="1">TODAY()</f>
-        <v>42881</v>
+        <v>42887</v>
       </c>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" s="15" customFormat="1">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2657,7 +2966,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6">
       <c r="B4" s="16">
         <v>0</v>
       </c>
@@ -2672,7 +2981,7 @@
       </c>
       <c r="F4" s="16"/>
     </row>
-    <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6">
       <c r="B5" s="16">
         <v>1</v>
       </c>
@@ -2687,7 +2996,7 @@
       </c>
       <c r="F5" s="16"/>
     </row>
-    <row r="6" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="42">
       <c r="B6" s="16">
         <f>B5+1</f>
         <v>2</v>
@@ -2703,7 +3012,7 @@
       </c>
       <c r="F6" s="16"/>
     </row>
-    <row r="7" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6">
       <c r="B7" s="16">
         <f t="shared" ref="B7:B16" si="0">B6+1</f>
         <v>3</v>
@@ -2719,7 +3028,7 @@
       </c>
       <c r="F7" s="16"/>
     </row>
-    <row r="8" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" ht="28">
       <c r="B8" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2735,7 +3044,7 @@
       </c>
       <c r="F8" s="16"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6">
       <c r="B9" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2751,7 +3060,7 @@
       </c>
       <c r="F9" s="16"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6">
       <c r="B10" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2767,7 +3076,7 @@
       </c>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6">
       <c r="B11" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2783,7 +3092,7 @@
       </c>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" ht="28">
       <c r="B12" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2799,7 +3108,7 @@
       </c>
       <c r="F12" s="16"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6">
       <c r="B13" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2809,7 +3118,7 @@
       <c r="E13" s="18"/>
       <c r="F13" s="16"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6">
       <c r="B14" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2819,7 +3128,7 @@
       <c r="E14" s="18"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6">
       <c r="B15" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2829,7 +3138,7 @@
       <c r="E15" s="18"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6">
       <c r="B16" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2839,26 +3148,26 @@
       <c r="E16" s="18"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5">
       <c r="C19" s="19"/>
       <c r="E19" s="20"/>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5">
       <c r="C20" s="19"/>
       <c r="E20" s="20"/>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5">
       <c r="C21" s="19"/>
       <c r="E21" s="20"/>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5">
       <c r="C22" s="19"/>
       <c r="E22" s="20"/>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5">
       <c r="C23" s="19"/>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5">
       <c r="C24" s="19"/>
     </row>
   </sheetData>
@@ -2881,837 +3190,923 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K64"/>
+  <dimension ref="B2:G70"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C6" sqref="C6"/>
       <selection pane="topRight" activeCell="C6" sqref="C6"/>
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="E57" sqref="E57"/>
+      <selection pane="bottomRight" activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="21" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="21" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="21" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="21"/>
+    <col min="1" max="1" width="2.6640625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="28.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="21" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="21" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="58" t="s">
+    <row r="2" spans="2:7">
+      <c r="B2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="58" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+    </row>
+    <row r="3" spans="2:7">
       <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="27">
-        <v>0</v>
-      </c>
-      <c r="E3" s="27">
+      <c r="D3" s="25">
+        <v>0</v>
+      </c>
+      <c r="E3" s="25">
         <v>1</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="25">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="25">
         <f t="shared" ref="G3" si="0">F3+1</f>
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7">
       <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="31" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C4" s="29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="31"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="28" t="s">
+      <c r="C5" s="29"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="C6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="28"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D6" s="26"/>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="30" t="s">
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="I8" s="21">
-        <f ca="1">HLOOKUP($I8,D$3:$D$55,35,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+    </row>
+    <row r="9" spans="2:7">
       <c r="B9" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="43"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="41"/>
+    </row>
+    <row r="10" spans="2:7">
       <c r="B10" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33">
+      <c r="D10" s="31"/>
+      <c r="E10" s="31">
         <v>3000</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="42">
         <v>3000</v>
       </c>
-      <c r="G10" s="44">
+      <c r="G10" s="42">
         <v>3000</v>
       </c>
-      <c r="K10" s="21">
-        <f>E$3:E$55</f>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="30" t="s">
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+    </row>
+    <row r="12" spans="2:7">
       <c r="B12" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42">
-        <v>0</v>
-      </c>
-      <c r="G12" s="43">
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40">
+        <v>0</v>
+      </c>
+      <c r="G12" s="41">
         <f>F12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7">
       <c r="B13" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33">
+      <c r="D13" s="31"/>
+      <c r="E13" s="31">
         <v>90</v>
       </c>
-      <c r="F13" s="44">
+      <c r="F13" s="42">
         <v>90</v>
       </c>
-      <c r="G13" s="44">
+      <c r="G13" s="42">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="30" t="s">
+    <row r="14" spans="2:7">
+      <c r="B14" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+    </row>
+    <row r="15" spans="2:7">
       <c r="B15" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42">
-        <v>0</v>
-      </c>
-      <c r="G15" s="43">
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40">
+        <v>0</v>
+      </c>
+      <c r="G15" s="41">
         <f>F15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7">
       <c r="B16" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33">
-        <v>10000</v>
-      </c>
-      <c r="F16" s="44">
-        <v>0</v>
-      </c>
-      <c r="G16" s="44">
+      <c r="D16" s="31"/>
+      <c r="E16" s="31">
+        <v>15000</v>
+      </c>
+      <c r="F16" s="42">
+        <v>0</v>
+      </c>
+      <c r="G16" s="42">
         <f>F16*(1+G15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="30" t="s">
+    <row r="17" spans="2:7">
+      <c r="B17" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+    </row>
+    <row r="18" spans="2:7">
       <c r="B18" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42">
-        <v>0</v>
-      </c>
-      <c r="G18" s="43">
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40">
+        <v>0</v>
+      </c>
+      <c r="G18" s="41">
         <f>F18</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7">
       <c r="B19" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33">
+      <c r="D19" s="31"/>
+      <c r="E19" s="31">
         <v>1500</v>
       </c>
-      <c r="F19" s="44">
-        <v>0</v>
-      </c>
-      <c r="G19" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="30" t="s">
+      <c r="F19" s="42">
+        <v>0</v>
+      </c>
+      <c r="G19" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+    </row>
+    <row r="21" spans="2:7">
       <c r="B21" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42">
-        <v>0</v>
-      </c>
-      <c r="G21" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40">
+        <v>0</v>
+      </c>
+      <c r="G21" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
       <c r="B22" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33">
+      <c r="D22" s="31"/>
+      <c r="E22" s="31">
         <v>150</v>
       </c>
-      <c r="F22" s="44">
+      <c r="F22" s="42">
         <v>150</v>
       </c>
-      <c r="G22" s="44">
+      <c r="G22" s="42">
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="30" t="s">
+    <row r="23" spans="2:7">
+      <c r="B23" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+    </row>
+    <row r="24" spans="2:7">
       <c r="B24" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42">
-        <v>0</v>
-      </c>
-      <c r="G24" s="43">
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40">
+        <v>0</v>
+      </c>
+      <c r="G24" s="41">
         <f>F24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7">
       <c r="B25" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33">
+      <c r="D25" s="31"/>
+      <c r="E25" s="31">
         <v>100</v>
       </c>
-      <c r="F25" s="44">
+      <c r="F25" s="42">
         <f>E25*(1+F24)</f>
         <v>100</v>
       </c>
-      <c r="G25" s="44">
+      <c r="G25" s="42">
         <f>F25*(1+G24)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="45" t="s">
+    <row r="26" spans="2:7">
+      <c r="B26" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="47" t="s">
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49">
-        <v>0</v>
-      </c>
-      <c r="G27" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="47" t="s">
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47">
+        <v>0</v>
+      </c>
+      <c r="G27" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51">
+      <c r="D28" s="49"/>
+      <c r="E28" s="49">
         <v>200</v>
       </c>
-      <c r="F28" s="52">
+      <c r="F28" s="50">
         <v>200</v>
       </c>
-      <c r="G28" s="52">
+      <c r="G28" s="50">
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="30" t="s">
+    <row r="29" spans="2:7">
+      <c r="B29" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+    </row>
+    <row r="30" spans="2:7">
       <c r="B30" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42">
-        <v>0</v>
-      </c>
-      <c r="G30" s="43">
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40">
+        <v>0</v>
+      </c>
+      <c r="G30" s="41">
         <f>F30</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7">
       <c r="B31" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33">
-        <v>800</v>
-      </c>
-      <c r="F31" s="44">
-        <v>0</v>
-      </c>
-      <c r="G31" s="44">
+      <c r="D31" s="31"/>
+      <c r="E31" s="31">
+        <v>1200</v>
+      </c>
+      <c r="F31" s="42">
+        <v>0</v>
+      </c>
+      <c r="G31" s="42">
         <f>F31*(1+G30)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="45" t="s">
+    <row r="32" spans="2:7">
+      <c r="B32" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="46" t="s">
+      <c r="C32" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="47" t="s">
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="47" t="s">
+      <c r="C33" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49">
-        <v>0</v>
-      </c>
-      <c r="G33" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="47" t="s">
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47">
+        <v>0</v>
+      </c>
+      <c r="G33" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="47" t="s">
+      <c r="C34" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51">
-        <v>800</v>
-      </c>
-      <c r="F34" s="52">
-        <v>0</v>
-      </c>
-      <c r="G34" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="30" t="s">
+      <c r="D34" s="49"/>
+      <c r="E34" s="49">
+        <v>1200</v>
+      </c>
+      <c r="F34" s="50">
+        <v>0</v>
+      </c>
+      <c r="G34" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+    </row>
+    <row r="36" spans="2:7">
       <c r="B36" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42">
-        <v>0</v>
-      </c>
-      <c r="G36" s="43">
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40">
+        <v>0</v>
+      </c>
+      <c r="G36" s="41">
         <f>F36</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7">
       <c r="B37" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33">
-        <v>320</v>
-      </c>
-      <c r="F37" s="44">
-        <v>0</v>
-      </c>
-      <c r="G37" s="44">
+      <c r="D37" s="31"/>
+      <c r="E37" s="31">
+        <v>480</v>
+      </c>
+      <c r="F37" s="42">
+        <v>0</v>
+      </c>
+      <c r="G37" s="42">
         <f>F37*(1+G36)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="45" t="s">
+    <row r="38" spans="2:7">
+      <c r="B38" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="46" t="s">
+      <c r="C38" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47">
+        <v>0</v>
+      </c>
+      <c r="G39" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49">
+        <v>6000</v>
+      </c>
+      <c r="F40" s="50">
+        <v>6000</v>
+      </c>
+      <c r="G40" s="50">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49">
-        <v>0</v>
-      </c>
-      <c r="G39" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51">
-        <v>6000</v>
-      </c>
-      <c r="F40" s="52">
-        <v>6000</v>
-      </c>
-      <c r="G40" s="52">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+    </row>
+    <row r="42" spans="2:7">
       <c r="B42" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="C42" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42">
-        <v>0</v>
-      </c>
-      <c r="G42" s="43">
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40">
+        <v>0</v>
+      </c>
+      <c r="G42" s="41">
         <f>F42</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7">
       <c r="B43" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33">
-        <v>2800</v>
-      </c>
-      <c r="F43" s="44">
-        <v>2800</v>
-      </c>
-      <c r="G43" s="44">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="28" t="s">
+      <c r="D43" s="31"/>
+      <c r="E43" s="31">
+        <v>4000</v>
+      </c>
+      <c r="F43" s="42">
+        <v>4000</v>
+      </c>
+      <c r="G43" s="42">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40">
+        <v>0</v>
+      </c>
+      <c r="G45" s="41">
+        <f>F45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31">
+        <v>3200</v>
+      </c>
+      <c r="F46" s="42">
+        <v>3200</v>
+      </c>
+      <c r="G46" s="42">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40">
+        <v>0</v>
+      </c>
+      <c r="G48" s="41">
+        <f>F48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31">
+        <v>3200</v>
+      </c>
+      <c r="F49" s="42">
+        <v>3200</v>
+      </c>
+      <c r="G49" s="42">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="34">
+      <c r="D51" s="32">
         <f>D10+D13+D16+D19+D22+D25+D28+D31+D34+D37+D40+D43</f>
         <v>0</v>
       </c>
-      <c r="E45" s="34">
-        <f>E10+E13+E16+E19+E22+E25+E28+E31+E34+E37+E40+E43</f>
-        <v>25760</v>
-      </c>
-      <c r="F45" s="34">
-        <f>F10+F13+F16+F19+F22+F25+F28+F31+F34+F37+F40+F43</f>
-        <v>12340</v>
-      </c>
-      <c r="G45" s="34">
-        <f>G10+G13+G16+G19+G22+G25+G28+G31+G34+G37+G40+G43</f>
-        <v>12340</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="9" t="s">
+      <c r="E51" s="32">
+        <f>E10+E13+E16+E19+E22+E25+E28+E31+E34+E37+E40+E43+E46+E49</f>
+        <v>39320</v>
+      </c>
+      <c r="F51" s="32">
+        <f>F10+F13+F16+F19+F22+F25+F28+F31+F34+F37+F40+F43+F46+F49</f>
+        <v>19940</v>
+      </c>
+      <c r="G51" s="32">
+        <f>G10+G13+G16+G19+G22+G25+G28+G31+G34+G37+G40+G43+G46+G49</f>
+        <v>19940</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="21" t="s">
+    <row r="54" spans="2:7">
+      <c r="B54" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D48" s="21">
-        <v>0</v>
-      </c>
-      <c r="E48" s="21">
-        <v>0</v>
-      </c>
-      <c r="F48" s="21">
-        <v>0</v>
-      </c>
-      <c r="G48" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="21" t="s">
+      <c r="D54" s="21">
+        <v>0</v>
+      </c>
+      <c r="E54" s="21">
+        <v>0</v>
+      </c>
+      <c r="F54" s="21">
+        <v>0</v>
+      </c>
+      <c r="G54" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="21" t="s">
+    <row r="56" spans="2:7">
+      <c r="B56" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G50" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="30" t="s">
+      <c r="G56" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="31"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="30" t="s">
+      <c r="C57" s="29"/>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="31"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="21" t="s">
+      <c r="C58" s="29"/>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="28" t="s">
+    <row r="61" spans="2:7">
+      <c r="B61" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D55" s="34">
-        <f>SUM(D48:D53)</f>
-        <v>0</v>
-      </c>
-      <c r="E55" s="34">
-        <f>SUM(E48:E53)</f>
-        <v>0</v>
-      </c>
-      <c r="F55" s="34">
-        <f t="shared" ref="F55:G55" si="1">SUM(F48:F53)</f>
-        <v>0</v>
-      </c>
-      <c r="G55" s="34">
+      <c r="D61" s="32">
+        <f>SUM(D54:D59)</f>
+        <v>0</v>
+      </c>
+      <c r="E61" s="32">
+        <f>SUM(E54:E59)</f>
+        <v>0</v>
+      </c>
+      <c r="F61" s="32">
+        <f t="shared" ref="F61:G61" si="1">SUM(F54:F59)</f>
+        <v>0</v>
+      </c>
+      <c r="G61" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="28" t="s">
+    <row r="63" spans="2:7">
+      <c r="B63" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D57" s="34">
-        <f>D55+D45</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="34">
-        <f t="shared" ref="E57:G57" si="2">E55+E45</f>
-        <v>25760</v>
-      </c>
-      <c r="F57" s="34">
-        <f t="shared" si="2"/>
-        <v>12340</v>
-      </c>
-      <c r="G57" s="34">
-        <f t="shared" si="2"/>
-        <v>12340</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="28" t="s">
+      <c r="D63" s="32">
+        <f>D61+D51</f>
+        <v>0</v>
+      </c>
+      <c r="E63" s="32">
+        <f>E61+E51</f>
+        <v>39320</v>
+      </c>
+      <c r="F63" s="32">
+        <f>F61+F51</f>
+        <v>19940</v>
+      </c>
+      <c r="G63" s="32">
+        <f t="shared" ref="E63:G63" si="2">G61+G51</f>
+        <v>19940</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D58" s="34">
-        <f>D57</f>
-        <v>0</v>
-      </c>
-      <c r="E58" s="34">
-        <f>D58+E57</f>
-        <v>25760</v>
-      </c>
-      <c r="F58" s="34">
-        <f t="shared" ref="F58:G58" si="3">E58+F57</f>
-        <v>38100</v>
-      </c>
-      <c r="G58" s="34">
-        <f t="shared" si="3"/>
-        <v>50440</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="36" t="s">
+      <c r="D64" s="32">
+        <f>D63</f>
+        <v>0</v>
+      </c>
+      <c r="E64" s="32">
+        <f>D64+E63</f>
+        <v>39320</v>
+      </c>
+      <c r="F64" s="32">
+        <f t="shared" ref="F64" si="3">E64+F63</f>
+        <v>59260</v>
+      </c>
+      <c r="G64" s="32">
+        <f>F64+G63</f>
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+    </row>
+    <row r="66" spans="2:7">
+      <c r="B66" s="34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="37"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39">
-        <f>NPV(Param!D4,E57:G57)+D57</f>
-        <v>45645.344814847143</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="37" t="s">
+    <row r="67" spans="2:7">
+      <c r="B67" s="35"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="B68" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37">
+        <f>NPV(Param!D4,E63:G63)+D63</f>
+        <v>71582.87714018955</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D63" s="40">
-        <f>COUNTIF(D58:G58,"&lt;=0")</f>
+      <c r="D69" s="38">
+        <f>COUNTIF(D64:G64,"&lt;=0")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="37" t="s">
+    <row r="70" spans="2:7">
+      <c r="B70" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="38"/>
-      <c r="D64" s="41" t="e">
-        <f>SUM(E57:G57)/-D57</f>
+      <c r="C70" s="36"/>
+      <c r="D70" s="39" t="e">
+        <f>SUM(E63:G63)/-D63</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3733,668 +4128,755 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G64"/>
+  <dimension ref="B2:G70"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C6" sqref="C6"/>
       <selection pane="topRight" activeCell="C6" sqref="C6"/>
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="D64" sqref="D64"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="21" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="21" customWidth="1"/>
-    <col min="3" max="3" width="45.85546875" style="21" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="21" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="21" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="21"/>
+    <col min="1" max="1" width="2.6640625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="45.83203125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="21" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="21" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="58" t="str">
+    <row r="2" spans="2:7">
+      <c r="B2" s="81" t="str">
         <f>Orcado!B2</f>
         <v>Identificação do Projeto</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="58" t="s">
+      <c r="C2" s="82"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="F2" s="82"/>
+      <c r="G2" s="83"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="26" t="str">
+      <c r="C3" s="85" t="str">
         <f>Orcado!C3</f>
         <v>Projeto Vigia Escolar</v>
       </c>
-      <c r="D3" s="27">
-        <v>0</v>
-      </c>
-      <c r="E3" s="27">
+      <c r="D3" s="86">
+        <v>0</v>
+      </c>
+      <c r="E3" s="86">
         <v>1</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="86">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="87">
         <f t="shared" ref="G3" si="0">F3+1</f>
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="2:7">
+      <c r="B4" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="26" t="str">
+      <c r="C4" s="85" t="str">
         <f>Orcado!C4</f>
         <v>Gilmar</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="89"/>
+    </row>
+    <row r="5" spans="2:7" ht="15" customHeight="1">
+      <c r="B5" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="85">
         <f>Orcado!C5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="28" t="s">
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="89"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="90"/>
+      <c r="C6" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="28"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+      <c r="D6" s="91"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="89"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="30" t="s">
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="94"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-    </row>
-    <row r="9" spans="2:7" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="21" t="s">
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="58"/>
+    </row>
+    <row r="9" spans="2:7" s="51" customFormat="1">
+      <c r="B9" s="59"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="30" t="s">
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="67"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-    </row>
-    <row r="12" spans="2:7" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="54"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="21" t="s">
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="58"/>
+    </row>
+    <row r="12" spans="2:7" s="51" customFormat="1">
+      <c r="B12" s="59"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="62"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="30" t="s">
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="67"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-    </row>
-    <row r="15" spans="2:7" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="21" t="s">
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="58"/>
+    </row>
+    <row r="15" spans="2:7" s="51" customFormat="1">
+      <c r="B15" s="59"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="62"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="30" t="s">
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="67"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-    </row>
-    <row r="18" spans="2:7" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="21" t="s">
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
+    </row>
+    <row r="18" spans="2:7" s="51" customFormat="1">
+      <c r="B18" s="59"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="62"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="30" t="s">
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="67"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-    </row>
-    <row r="21" spans="2:7" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="54"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="21" t="s">
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="58"/>
+    </row>
+    <row r="21" spans="2:7" s="51" customFormat="1">
+      <c r="B21" s="59"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="62"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="30" t="s">
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="67"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-    </row>
-    <row r="24" spans="2:7" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="54"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="21" t="s">
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="58"/>
+    </row>
+    <row r="24" spans="2:7" s="51" customFormat="1">
+      <c r="B24" s="59"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="62"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="45" t="s">
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="67"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-    </row>
-    <row r="27" spans="2:7" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="47" t="s">
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="71"/>
+    </row>
+    <row r="27" spans="2:7" s="51" customFormat="1">
+      <c r="B27" s="72"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="75"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="30" t="s">
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="80"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-    </row>
-    <row r="30" spans="2:7" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="54"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="21" t="s">
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="58"/>
+    </row>
+    <row r="30" spans="2:7" s="51" customFormat="1">
+      <c r="B30" s="59"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="62"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="45" t="s">
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="67"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="46" t="s">
+      <c r="C32" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-    </row>
-    <row r="33" spans="2:7" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="47" t="s">
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="71"/>
+    </row>
+    <row r="33" spans="2:7" s="51" customFormat="1">
+      <c r="B33" s="72"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="75"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="47" t="s">
+      <c r="C34" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="30" t="s">
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="80"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-    </row>
-    <row r="36" spans="2:7" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="54"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="21" t="s">
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="58"/>
+    </row>
+    <row r="36" spans="2:7" s="51" customFormat="1">
+      <c r="B36" s="59"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="62"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="45" t="s">
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="67"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="46" t="s">
+      <c r="C38" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="71"/>
+    </row>
+    <row r="39" spans="2:7" s="51" customFormat="1">
+      <c r="B39" s="72"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="75"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="78"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="80"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-    </row>
-    <row r="39" spans="2:7" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="47" t="s">
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="58"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="59"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="62"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="47" t="s">
+      <c r="C43" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="30" t="s">
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="67"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-    </row>
-    <row r="42" spans="2:7" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="54"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="21" t="s">
+      <c r="C44" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="58"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="59"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="62"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C46" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="28" t="s">
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="67"/>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="58"/>
+    </row>
+    <row r="48" spans="2:7" s="51" customFormat="1">
+      <c r="B48" s="59"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="62"/>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="67"/>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="34">
-        <f>D10+D13+D16+D19+D22+D25+D28+D31+D34+D37+D40+D43</f>
-        <v>0</v>
-      </c>
-      <c r="E45" s="34">
-        <f>E10+E13+E16+E19+E22+E25+E28+E31+E34+E37+E40+E43</f>
-        <v>0</v>
-      </c>
-      <c r="F45" s="34">
-        <f t="shared" ref="F45:G45" si="1">F10+F13+F16+F19+F22+F25+F28+F31+F34+F37+F40+F43</f>
-        <v>0</v>
-      </c>
-      <c r="G45" s="34">
+      <c r="D51" s="32">
+        <f>D10+D13+D16+D19+D22+D25+D28+D31+D34+D37+D40+D49+D43+D46</f>
+        <v>0</v>
+      </c>
+      <c r="E51" s="32">
+        <f>E10+E13+E16+E19+E22+E25+E28+E31+E34+E37+E40+E49+E43+E46</f>
+        <v>0</v>
+      </c>
+      <c r="F51" s="32">
+        <f>F10+F13+F16+F19+F22+F25+F28+F31+F34+F37+F40+F49+F43+F46</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="32">
+        <f>G10+G13+G16+G19+G22+G25+G28+G31+G34+G37+G40+G49+G43+G46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="29">
+        <v>0</v>
+      </c>
+      <c r="E54" s="29">
+        <v>0</v>
+      </c>
+      <c r="F54" s="29">
+        <f>E54</f>
+        <v>0</v>
+      </c>
+      <c r="G54" s="29">
+        <f>F54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D61" s="32">
+        <f>SUM(D54:D59)</f>
+        <v>0</v>
+      </c>
+      <c r="E61" s="32">
+        <f>SUM(E54:E59)</f>
+        <v>0</v>
+      </c>
+      <c r="F61" s="32">
+        <f t="shared" ref="F61:G61" si="1">SUM(F54:F59)</f>
+        <v>0</v>
+      </c>
+      <c r="G61" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D48" s="31">
-        <v>0</v>
-      </c>
-      <c r="E48" s="31">
-        <v>0</v>
-      </c>
-      <c r="F48" s="31">
-        <f>E48</f>
-        <v>0</v>
-      </c>
-      <c r="G48" s="31">
-        <f>F48</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="28" t="s">
+    <row r="63" spans="2:7">
+      <c r="B63" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D55" s="34">
-        <f>SUM(D48:D53)</f>
-        <v>0</v>
-      </c>
-      <c r="E55" s="34">
-        <f>SUM(E48:E53)</f>
-        <v>0</v>
-      </c>
-      <c r="F55" s="34">
-        <f t="shared" ref="F55:G55" si="2">SUM(F48:F53)</f>
-        <v>0</v>
-      </c>
-      <c r="G55" s="34">
+      <c r="D63" s="32">
+        <f>D51+D61</f>
+        <v>0</v>
+      </c>
+      <c r="E63" s="32">
+        <f t="shared" ref="E63:G63" si="2">E51+E61</f>
+        <v>0</v>
+      </c>
+      <c r="F63" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D57" s="34">
-        <f>D45+D55</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="34">
-        <f t="shared" ref="E57:G57" si="3">E45+E55</f>
-        <v>0</v>
-      </c>
-      <c r="F57" s="34">
+      <c r="G63" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D64" s="32">
+        <f>D63</f>
+        <v>0</v>
+      </c>
+      <c r="E64" s="32">
+        <f>D64+E63</f>
+        <v>0</v>
+      </c>
+      <c r="F64" s="32">
+        <f t="shared" ref="F64:G64" si="3">E64+F63</f>
+        <v>0</v>
+      </c>
+      <c r="G64" s="32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G57" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D58" s="34">
-        <f>D57</f>
-        <v>0</v>
-      </c>
-      <c r="E58" s="34">
-        <f>D58+E57</f>
-        <v>0</v>
-      </c>
-      <c r="F58" s="34">
-        <f t="shared" ref="F58:G58" si="4">E58+F57</f>
-        <v>0</v>
-      </c>
-      <c r="G58" s="34">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="36" t="s">
+    </row>
+    <row r="65" spans="2:7">
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+    </row>
+    <row r="66" spans="2:7">
+      <c r="B66" s="34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="37"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39">
-        <f>NPV(Param!D4,E57:G57)+D57</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="37" t="s">
+    <row r="67" spans="2:7">
+      <c r="B67" s="35"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="B68" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37">
+        <f>NPV(Param!D4,E63:G63)+D63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D63" s="40">
-        <f>COUNTIF(D58:G58,"&lt;=0")</f>
+      <c r="D69" s="38">
+        <f>COUNTIF(D64:G64,"&lt;=0")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="37" t="s">
+    <row r="70" spans="2:7">
+      <c r="B70" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="38"/>
-      <c r="D64" s="41" t="e">
-        <f>SUM(E57:G57)/-D57</f>
+      <c r="C70" s="36"/>
+      <c r="D70" s="39" t="e">
+        <f>SUM(E63:G63)/-D63</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4418,32 +4900,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="21" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="21"/>
+    <col min="1" max="1" width="2.6640625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="21"/>
     <col min="3" max="3" width="10" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.85546875" style="21"/>
-    <col min="7" max="7" width="10.140625" style="21" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="21"/>
+    <col min="4" max="6" width="8.83203125" style="21"/>
+    <col min="7" max="7" width="10.1640625" style="21" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8">
       <c r="B2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="59" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="60"/>
+      <c r="F2" s="54"/>
       <c r="G2" s="4" t="s">
         <v>51</v>
       </c>
@@ -4451,7 +4933,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8">
       <c r="B3" s="3" t="s">
         <v>43</v>
       </c>
@@ -4470,16 +4952,16 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8">
       <c r="B4" s="22">
         <v>0</v>
       </c>
       <c r="C4" s="24">
-        <f>HLOOKUP($B4,Orcado!$D$3:$G$55,35,FALSE)</f>
+        <f>HLOOKUP($B4,Orcado!$D$3:$G$61,35,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D4" s="24">
-        <f>HLOOKUP($B4,Realizado!$D$3:$G$55,35,FALSE)</f>
+        <f>VLOOKUP("Investimento Total",Realizado!$B$3:$G$64,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E4" s="24">
@@ -4499,22 +4981,22 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8">
       <c r="B5" s="22">
         <f>B4+1</f>
         <v>1</v>
       </c>
       <c r="C5" s="24">
-        <f>Orcado!E57</f>
-        <v>25760</v>
+        <f>Orcado!E63</f>
+        <v>39320</v>
       </c>
       <c r="D5" s="24">
-        <f>HLOOKUP($B5,Realizado!$D$3:$G$55,35,FALSE)</f>
+        <f>VLOOKUP("Investimento Total",Realizado!$B$3:$G$64,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E5" s="24">
         <f>E4+C5</f>
-        <v>25760</v>
+        <v>39320</v>
       </c>
       <c r="F5" s="24">
         <f>F4+D5</f>
@@ -4522,29 +5004,29 @@
       </c>
       <c r="G5" s="24">
         <f t="shared" ref="G5:G7" si="0">F5-E5</f>
-        <v>-25760</v>
+        <v>-39320</v>
       </c>
       <c r="H5" s="23">
         <f t="shared" ref="H5:H7" si="1">F5/E5-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8">
       <c r="B6" s="22">
         <f t="shared" ref="B6:B7" si="2">B5+1</f>
         <v>2</v>
       </c>
       <c r="C6" s="24">
-        <f>Orcado!F57</f>
-        <v>12340</v>
+        <f>Orcado!F63</f>
+        <v>19940</v>
       </c>
       <c r="D6" s="24">
-        <f>HLOOKUP($B6,Realizado!$D$3:$G$55,35,FALSE)</f>
+        <f>VLOOKUP("Investimento Total",Realizado!$B$3:$G$64,5,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E6" s="24">
         <f t="shared" ref="E6:F7" si="3">E5+C6</f>
-        <v>38100</v>
+        <v>59260</v>
       </c>
       <c r="F6" s="24">
         <f t="shared" si="3"/>
@@ -4552,29 +5034,29 @@
       </c>
       <c r="G6" s="24">
         <f t="shared" si="0"/>
-        <v>-38100</v>
+        <v>-59260</v>
       </c>
       <c r="H6" s="23">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8">
       <c r="B7" s="22">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C7" s="24">
-        <f>Orcado!G57</f>
-        <v>12340</v>
+        <f>Orcado!G63</f>
+        <v>19940</v>
       </c>
       <c r="D7" s="24">
-        <f>HLOOKUP($B7,Realizado!$D$3:$G$55,35,FALSE)</f>
+        <f>VLOOKUP("Investimento Total",Realizado!$B$3:$G$64,6,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E7" s="24">
         <f t="shared" si="3"/>
-        <v>50440</v>
+        <v>79200</v>
       </c>
       <c r="F7" s="24">
         <f t="shared" si="3"/>
@@ -4582,20 +5064,20 @@
       </c>
       <c r="G7" s="24">
         <f t="shared" si="0"/>
-        <v>-50440</v>
+        <v>-79200</v>
       </c>
       <c r="H7" s="23">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8">
       <c r="B8" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C8" s="24">
         <f>SUM(C4:C7)</f>
-        <v>50440</v>
+        <v>79200</v>
       </c>
       <c r="D8" s="24">
         <f>SUM(D4:D7)</f>
@@ -4608,6 +5090,7 @@
     <mergeCell ref="E2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -4625,16 +5108,16 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="21" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="21"/>
+    <col min="1" max="1" width="2.6640625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="21" customWidth="1"/>
+    <col min="3" max="3" width="35.5" style="21" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4">
       <c r="B2" s="2" t="s">
         <v>37</v>
       </c>
@@ -4645,7 +5128,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4">
       <c r="B3" s="22" t="s">
         <v>7</v>
       </c>
@@ -4654,7 +5137,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4">
       <c r="B4" s="22" t="s">
         <v>38</v>
       </c>
@@ -4665,49 +5148,49 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4">
       <c r="B5" s="22"/>
       <c r="C5" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="22"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4">
       <c r="B6" s="22"/>
       <c r="C6" s="22" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="22"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4">
       <c r="B7" s="22"/>
       <c r="C7" s="22" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="22"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4">
       <c r="B8" s="22"/>
       <c r="C8" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="22"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4">
       <c r="B9" s="22"/>
       <c r="C9" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="22"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4">
       <c r="B10" s="22"/>
       <c r="C10" s="22" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="22"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4">
       <c r="B11" s="22"/>
       <c r="C11" s="22" t="s">
         <v>25</v>
